--- a/Datasources/Season_Data/game_stats.xlsx
+++ b/Datasources/Season_Data/game_stats.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossh\Projects\CITY_Soccer_Analysis\Datasources\Season_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F800A471-278A-4051-AF75-240B0F33C60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Game Stats" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="121">
   <si>
     <t>Date</t>
   </si>
@@ -175,15 +181,6 @@
     <t>2023-10-21</t>
   </si>
   <si>
-    <t>2023-10-29</t>
-  </si>
-  <si>
-    <t>2023-11-05</t>
-  </si>
-  <si>
-    <t>2023-11-11</t>
-  </si>
-  <si>
     <t>19:30</t>
   </si>
   <si>
@@ -199,21 +196,12 @@
     <t>20:00</t>
   </si>
   <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
     <t>MLS</t>
   </si>
   <si>
     <t>Regular Season</t>
   </si>
   <si>
-    <t>Round One</t>
-  </si>
-  <si>
     <t>Sat</t>
   </si>
   <si>
@@ -298,9 +286,6 @@
     <t>Orlando City</t>
   </si>
   <si>
-    <t>Sporting Kansas City</t>
-  </si>
-  <si>
     <t>Roman Bürki</t>
   </si>
   <si>
@@ -397,14 +382,14 @@
     <t>Jair Marrufo</t>
   </si>
   <si>
-    <t>Head-to-Head</t>
+    <t>Game ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,24 +441,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,7 +505,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -545,6 +539,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -579,9 +574,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -754,14 +750,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -820,7 +821,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -828,22 +829,22 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -852,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -867,19 +868,19 @@
         <v>20738</v>
       </c>
       <c r="P2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" t="s">
         <v>97</v>
       </c>
-      <c r="R2" t="s">
-        <v>104</v>
-      </c>
       <c r="S2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -887,22 +888,22 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
         <v>64</v>
       </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>70</v>
-      </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I3">
         <v>3</v>
@@ -911,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="L3">
         <v>1.7</v>
@@ -926,19 +927,19 @@
         <v>22423</v>
       </c>
       <c r="P3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" t="s">
         <v>98</v>
       </c>
-      <c r="R3" t="s">
-        <v>105</v>
-      </c>
       <c r="S3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -946,22 +947,22 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -970,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L4">
         <v>0.8</v>
@@ -985,19 +986,19 @@
         <v>23386</v>
       </c>
       <c r="P4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="S4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1005,22 +1006,22 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
         <v>64</v>
       </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -1029,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L5">
         <v>2.1</v>
@@ -1044,19 +1045,19 @@
         <v>22423</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="S5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1064,22 +1065,22 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
         <v>63</v>
       </c>
-      <c r="E6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" t="s">
-        <v>69</v>
-      </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I6">
         <v>4</v>
@@ -1088,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L6">
         <v>1.6</v>
@@ -1103,19 +1104,19 @@
         <v>19508</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="S6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1123,22 +1124,22 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" t="s">
         <v>64</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>72</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1147,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L7">
         <v>0.9</v>
@@ -1162,19 +1163,19 @@
         <v>22423</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R7" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="S7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1182,22 +1183,22 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>66</v>
-      </c>
-      <c r="G8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H8" t="s">
-        <v>72</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1206,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L8">
         <v>0.6</v>
@@ -1221,19 +1222,19 @@
         <v>31789</v>
       </c>
       <c r="P8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="R8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1241,22 +1242,22 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
         <v>64</v>
       </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I9">
         <v>5</v>
@@ -1265,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L9">
         <v>1.7</v>
@@ -1280,19 +1281,19 @@
         <v>22423</v>
       </c>
       <c r="P9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="S9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1300,22 +1301,22 @@
         <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" t="s">
-        <v>69</v>
-      </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1324,10 +1325,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L10">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M10">
         <v>3.2</v>
@@ -1339,19 +1340,19 @@
         <v>15045</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="S10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1359,22 +1360,22 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
         <v>64</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>66</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" t="s">
-        <v>72</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1383,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L11">
         <v>0.9</v>
@@ -1398,19 +1399,19 @@
         <v>22423</v>
       </c>
       <c r="P11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R11" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="S11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1418,22 +1419,22 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" t="s">
-        <v>72</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1442,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L12">
         <v>0.5</v>
@@ -1457,19 +1458,19 @@
         <v>18231</v>
       </c>
       <c r="P12" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q12" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R12" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="S12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1477,22 +1478,22 @@
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
         <v>64</v>
       </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
-      </c>
       <c r="H13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I13">
         <v>4</v>
@@ -1501,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L13">
         <v>1.5</v>
@@ -1516,19 +1517,19 @@
         <v>22423</v>
       </c>
       <c r="P13" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R13" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="S13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1536,22 +1537,22 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
         <v>64</v>
       </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" t="s">
-        <v>70</v>
-      </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -1560,7 +1561,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L14">
         <v>0.9</v>
@@ -1575,19 +1576,19 @@
         <v>22423</v>
       </c>
       <c r="P14" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R14" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="S14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1595,22 +1596,22 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
         <v>64</v>
       </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" t="s">
-        <v>70</v>
-      </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I15">
         <v>3</v>
@@ -1619,10 +1620,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L15">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M15">
         <v>1.4</v>
@@ -1634,19 +1635,19 @@
         <v>22423</v>
       </c>
       <c r="P15" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q15" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R15" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="S15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1654,22 +1655,22 @@
         <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" t="s">
-        <v>69</v>
-      </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1678,31 +1679,31 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L16">
         <v>0.8</v>
       </c>
       <c r="M16">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N16">
         <v>52</v>
       </c>
       <c r="P16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R16" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="S16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1710,22 +1711,22 @@
         <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
         <v>64</v>
       </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1734,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L17">
         <v>1.9</v>
@@ -1749,19 +1750,19 @@
         <v>22423</v>
       </c>
       <c r="P17" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R17" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="S17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1769,22 +1770,22 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>66</v>
-      </c>
-      <c r="G18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" t="s">
-        <v>72</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1793,13 +1794,13 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="L18">
         <v>1.6</v>
       </c>
       <c r="M18">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N18">
         <v>49</v>
@@ -1808,19 +1809,19 @@
         <v>30109</v>
       </c>
       <c r="P18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q18" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R18" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="S18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1828,22 +1829,22 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="F19" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" t="s">
-        <v>70</v>
-      </c>
       <c r="H19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1852,7 +1853,7 @@
         <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L19">
         <v>0.7</v>
@@ -1867,19 +1868,19 @@
         <v>22423</v>
       </c>
       <c r="P19" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R19" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="S19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1887,22 +1888,22 @@
         <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" t="s">
         <v>63</v>
       </c>
-      <c r="E20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" t="s">
-        <v>69</v>
-      </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1911,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L20">
         <v>1.7</v>
@@ -1926,19 +1927,19 @@
         <v>15074</v>
       </c>
       <c r="P20" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="S20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1946,22 +1947,22 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
         <v>64</v>
       </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="s">
-        <v>70</v>
-      </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1970,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L21">
         <v>2.5</v>
@@ -1985,19 +1986,19 @@
         <v>22423</v>
       </c>
       <c r="P21" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="R21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="S21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2005,22 +2006,22 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" t="s">
-        <v>69</v>
-      </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -2029,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L22">
         <v>1.4</v>
@@ -2044,19 +2045,19 @@
         <v>26156</v>
       </c>
       <c r="P22" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q22" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R22" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="S22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2064,22 +2065,22 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
         <v>63</v>
       </c>
-      <c r="E23" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>69</v>
-      </c>
       <c r="H23" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2088,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L23">
         <v>0.3</v>
@@ -2103,19 +2104,19 @@
         <v>22010</v>
       </c>
       <c r="P23" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q23" t="s">
         <v>95</v>
       </c>
-      <c r="Q23" t="s">
-        <v>102</v>
-      </c>
       <c r="R23" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="S23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2123,22 +2124,22 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" t="s">
-        <v>70</v>
-      </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -2147,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L24">
         <v>1.4</v>
@@ -2162,19 +2163,19 @@
         <v>22423</v>
       </c>
       <c r="P24" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q24" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R24" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="S24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2182,22 +2183,22 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
         <v>64</v>
       </c>
-      <c r="F25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" t="s">
-        <v>70</v>
-      </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I25">
         <v>6</v>
@@ -2206,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="K25" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="L25">
         <v>1.7</v>
@@ -2221,19 +2222,19 @@
         <v>22423</v>
       </c>
       <c r="P25" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q25" t="s">
         <v>95</v>
       </c>
-      <c r="Q25" t="s">
-        <v>102</v>
-      </c>
       <c r="R25" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="S25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2241,22 +2242,22 @@
         <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
         <v>63</v>
       </c>
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="H26" t="s">
         <v>66</v>
-      </c>
-      <c r="G26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" t="s">
-        <v>72</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2265,7 +2266,7 @@
         <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="L26">
         <v>0.7</v>
@@ -2280,19 +2281,19 @@
         <v>22156</v>
       </c>
       <c r="P26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q26" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="R26" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="S26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2300,22 +2301,22 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
         <v>64</v>
       </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>70</v>
-      </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -2324,10 +2325,10 @@
         <v>1</v>
       </c>
       <c r="K27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L27">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M27">
         <v>1.4</v>
@@ -2339,19 +2340,19 @@
         <v>22423</v>
       </c>
       <c r="P27" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R27" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="S27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2359,22 +2360,22 @@
         <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
         <v>63</v>
       </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>66</v>
-      </c>
-      <c r="G28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" t="s">
-        <v>72</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2383,7 +2384,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L28">
         <v>0.3</v>
@@ -2398,19 +2399,19 @@
         <v>21650</v>
       </c>
       <c r="P28" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q28" t="s">
+        <v>90</v>
+      </c>
+      <c r="R28" t="s">
         <v>97</v>
       </c>
-      <c r="R28" t="s">
-        <v>104</v>
-      </c>
       <c r="S28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2418,22 +2419,22 @@
         <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
         <v>63</v>
       </c>
-      <c r="E29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" t="s">
-        <v>69</v>
-      </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2442,13 +2443,13 @@
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L29">
         <v>0.7</v>
       </c>
       <c r="M29">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="N29">
         <v>31</v>
@@ -2457,19 +2458,19 @@
         <v>19554</v>
       </c>
       <c r="P29" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q29" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R29" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="S29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2477,22 +2478,22 @@
         <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
         <v>63</v>
       </c>
-      <c r="E30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" t="s">
-        <v>69</v>
-      </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2501,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L30">
         <v>1.3</v>
@@ -2516,19 +2517,19 @@
         <v>14369</v>
       </c>
       <c r="P30" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q30" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R30" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="S30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2536,22 +2537,22 @@
         <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
         <v>64</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>67</v>
-      </c>
-      <c r="G31" t="s">
-        <v>70</v>
-      </c>
-      <c r="H31" t="s">
-        <v>73</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2560,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L31">
         <v>0.6</v>
@@ -2575,19 +2576,19 @@
         <v>22423</v>
       </c>
       <c r="P31" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q31" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="R31" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="S31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2595,22 +2596,22 @@
         <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" t="s">
         <v>63</v>
       </c>
-      <c r="E32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" t="s">
-        <v>69</v>
-      </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -2619,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L32">
         <v>1.3</v>
@@ -2634,19 +2635,19 @@
         <v>19197</v>
       </c>
       <c r="P32" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q32" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R32" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="S32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2654,22 +2655,22 @@
         <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" t="s">
         <v>64</v>
       </c>
-      <c r="F33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" t="s">
-        <v>70</v>
-      </c>
       <c r="H33" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I33">
         <v>4</v>
@@ -2678,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L33">
         <v>2.8</v>
@@ -2693,19 +2694,19 @@
         <v>22423</v>
       </c>
       <c r="P33" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q33" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R33" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="S33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2713,22 +2714,22 @@
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" t="s">
         <v>63</v>
       </c>
-      <c r="E34" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" t="s">
-        <v>67</v>
-      </c>
-      <c r="G34" t="s">
-        <v>69</v>
-      </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2737,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="K34" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="L34">
         <v>0.3</v>
@@ -2752,19 +2753,19 @@
         <v>13776</v>
       </c>
       <c r="P34" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="Q34" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="R34" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="S34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2772,22 +2773,22 @@
         <v>52</v>
       </c>
       <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
         <v>60</v>
       </c>
-      <c r="D35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>64</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>66</v>
-      </c>
-      <c r="G35" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" t="s">
-        <v>72</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2796,13 +2797,13 @@
         <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L35">
         <v>0.6</v>
       </c>
       <c r="M35">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N35">
         <v>52</v>
@@ -2811,136 +2812,20 @@
         <v>22423</v>
       </c>
       <c r="P35" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q35" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="R35" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="S35" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E36" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G36" t="s">
-        <v>70</v>
-      </c>
-      <c r="H36" t="s">
-        <v>72</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>4</v>
-      </c>
-      <c r="K36" t="s">
-        <v>94</v>
-      </c>
-      <c r="L36">
-        <v>0.8</v>
-      </c>
-      <c r="M36">
-        <v>1.5</v>
-      </c>
-      <c r="N36">
-        <v>57</v>
-      </c>
-      <c r="O36">
-        <v>22423</v>
-      </c>
-      <c r="P36" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>98</v>
-      </c>
-      <c r="R36" t="s">
-        <v>105</v>
-      </c>
-      <c r="S36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" t="s">
-        <v>65</v>
-      </c>
-      <c r="F37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" t="s">
-        <v>69</v>
-      </c>
-      <c r="K37" t="s">
-        <v>94</v>
-      </c>
-      <c r="S37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" t="s">
-        <v>70</v>
-      </c>
-      <c r="K38" t="s">
-        <v>94</v>
-      </c>
-      <c r="S38" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Datasources/Season_Data/game_stats.xlsx
+++ b/Datasources/Season_Data/game_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossh\Projects\CITY_Soccer_Analysis\Datasources\Season_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F800A471-278A-4051-AF75-240B0F33C60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7225E37B-5DD1-4A63-8A30-9C8A6708C25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Game Stats" sheetId="1" r:id="rId1"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,7 +823,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>28</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>30</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>31</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>44</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
@@ -2472,7 +2472,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>47</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>48</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>49</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -2708,7 +2708,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
